--- a/config/driver.xlsx
+++ b/config/driver.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView windowHeight="17680"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="设备信息表" sheetId="1" r:id="rId1"/>
-    <sheet name="测点表_读" sheetId="2" r:id="rId2"/>
-    <sheet name="测点表_写" sheetId="3" r:id="rId3"/>
-    <sheet name="命令表" sheetId="4" r:id="rId4"/>
+    <sheet sheetId="1" name="设备信息表" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="测点表_读" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="测点表_写" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="命令表" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1712,186 +1696,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="000000"/>
+      <family val="1"/>
       <sz val="13"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <color rgb="000000"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1899,193 +1726,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="none">
+        <fgColor rgb="ffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2108,328 +1754,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2751,248 +2102,243 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3005,67 +2351,59 @@
     <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P130"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="6.45454545454545" customWidth="1"/>
-    <col min="2" max="16" width="10" customWidth="1"/>
+    <col min="1" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -3075,7 +2413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:16">
+    <row r="2" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3125,7 +2463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:16">
+    <row r="3" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3175,7 +2513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:16">
+    <row r="4" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3225,7 +2563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:16">
+    <row r="5" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3275,7 +2613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:16">
+    <row r="6" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3325,7 +2663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1" spans="1:16">
+    <row r="7" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3375,7 +2713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:16">
+    <row r="8" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3425,7 +2763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:16">
+    <row r="9" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3475,7 +2813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:16">
+    <row r="10" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3525,7 +2863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:16">
+    <row r="11" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3575,7 +2913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:16">
+    <row r="12" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3625,7 +2963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:16">
+    <row r="13" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3675,7 +3013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:16">
+    <row r="14" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3725,7 +3063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:16">
+    <row r="15" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3775,7 +3113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:16">
+    <row r="16" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3825,7 +3163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:16">
+    <row r="17" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3875,7 +3213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="1:16">
+    <row r="18" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3925,7 +3263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:16">
+    <row r="19" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3975,7 +3313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:16">
+    <row r="20" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4025,7 +3363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1" spans="1:16">
+    <row r="21" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4075,7 +3413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:16">
+    <row r="22" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4125,7 +3463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="1:16">
+    <row r="23" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4175,7 +3513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1" spans="1:16">
+    <row r="24" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4225,7 +3563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="20" customHeight="1" spans="1:16">
+    <row r="25" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4275,7 +3613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1" spans="1:16">
+    <row r="26" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4325,7 +3663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1" spans="1:16">
+    <row r="27" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4375,7 +3713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" ht="20" customHeight="1" spans="1:16">
+    <row r="28" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4425,7 +3763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="1:16">
+    <row r="29" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4475,7 +3813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="1:16">
+    <row r="30" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4525,7 +3863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:16">
+    <row r="31" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4575,7 +3913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" ht="20" customHeight="1" spans="1:16">
+    <row r="32" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4625,7 +3963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1" spans="1:16">
+    <row r="33" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4675,7 +4013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="1:16">
+    <row r="34" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4725,7 +4063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="1:16">
+    <row r="35" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4775,7 +4113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" ht="20" customHeight="1" spans="1:16">
+    <row r="36" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4825,7 +4163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" ht="20" customHeight="1" spans="1:16">
+    <row r="37" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4875,7 +4213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" ht="20" customHeight="1" spans="1:16">
+    <row r="38" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4925,7 +4263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" ht="20" customHeight="1" spans="1:16">
+    <row r="39" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4975,7 +4313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" ht="20" customHeight="1" spans="1:16">
+    <row r="40" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5025,7 +4363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" ht="20" customHeight="1" spans="1:16">
+    <row r="41" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5075,7 +4413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" ht="20" customHeight="1" spans="1:16">
+    <row r="42" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5125,7 +4463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" ht="20" customHeight="1" spans="1:16">
+    <row r="43" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5175,7 +4513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" ht="20" customHeight="1" spans="1:16">
+    <row r="44" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5225,7 +4563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" ht="20" customHeight="1" spans="1:16">
+    <row r="45" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5275,7 +4613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" ht="20" customHeight="1" spans="1:16">
+    <row r="46" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5325,7 +4663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" ht="20" customHeight="1" spans="1:16">
+    <row r="47" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5375,7 +4713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" ht="20" customHeight="1" spans="1:16">
+    <row r="48" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5425,7 +4763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" ht="20" customHeight="1" spans="1:16">
+    <row r="49" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5475,7 +4813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" ht="20" customHeight="1" spans="1:16">
+    <row r="50" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5525,7 +4863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" ht="20" customHeight="1" spans="1:16">
+    <row r="51" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5575,7 +4913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" ht="20" customHeight="1" spans="1:16">
+    <row r="52" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5625,7 +4963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" ht="20" customHeight="1" spans="1:16">
+    <row r="53" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5675,7 +5013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" ht="20" customHeight="1" spans="1:16">
+    <row r="54" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5725,7 +5063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" ht="20" customHeight="1" spans="1:16">
+    <row r="55" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5775,7 +5113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" ht="20" customHeight="1" spans="1:16">
+    <row r="56" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5825,7 +5163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" ht="20" customHeight="1" spans="1:16">
+    <row r="57" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5875,7 +5213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" ht="20" customHeight="1" spans="1:16">
+    <row r="58" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5925,7 +5263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" ht="20" customHeight="1" spans="1:16">
+    <row r="59" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5975,7 +5313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" ht="20" customHeight="1" spans="1:16">
+    <row r="60" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6025,7 +5363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" ht="20" customHeight="1" spans="1:16">
+    <row r="61" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6075,7 +5413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" ht="20" customHeight="1" spans="1:16">
+    <row r="62" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6125,7 +5463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" ht="20" customHeight="1" spans="1:16">
+    <row r="63" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6175,7 +5513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" ht="20" customHeight="1" spans="1:16">
+    <row r="64" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6225,7 +5563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" ht="20" customHeight="1" spans="1:16">
+    <row r="65" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6275,7 +5613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" ht="20" customHeight="1" spans="1:16">
+    <row r="66" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6325,7 +5663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" ht="20" customHeight="1" spans="1:16">
+    <row r="67" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6375,7 +5713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" ht="20" customHeight="1" spans="1:16">
+    <row r="68" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -6425,7 +5763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" ht="20" customHeight="1" spans="1:16">
+    <row r="69" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6475,7 +5813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" ht="20" customHeight="1" spans="1:16">
+    <row r="70" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6525,7 +5863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:16">
+    <row r="71" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6575,7 +5913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" ht="20" customHeight="1" spans="1:16">
+    <row r="72" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6625,7 +5963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" ht="20" customHeight="1" spans="1:16">
+    <row r="73" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6675,7 +6013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" ht="20" customHeight="1" spans="1:16">
+    <row r="74" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6725,7 +6063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" ht="20" customHeight="1" spans="1:16">
+    <row r="75" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6775,7 +6113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="20" customHeight="1" spans="1:16">
+    <row r="76" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6825,7 +6163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" ht="20" customHeight="1" spans="1:16">
+    <row r="77" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6875,7 +6213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" ht="20" customHeight="1" spans="1:16">
+    <row r="78" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -6925,7 +6263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" ht="20" customHeight="1" spans="1:16">
+    <row r="79" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6975,7 +6313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" ht="20" customHeight="1" spans="1:16">
+    <row r="80" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7025,7 +6363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" ht="20" customHeight="1" spans="1:16">
+    <row r="81" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7075,7 +6413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" ht="20" customHeight="1" spans="1:16">
+    <row r="82" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7125,7 +6463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" ht="20" customHeight="1" spans="1:16">
+    <row r="83" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7175,7 +6513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" ht="20" customHeight="1" spans="1:16">
+    <row r="84" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7225,7 +6563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" ht="20" customHeight="1" spans="1:16">
+    <row r="85" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7275,7 +6613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" ht="20" customHeight="1" spans="1:16">
+    <row r="86" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -7325,7 +6663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" ht="20" customHeight="1" spans="1:16">
+    <row r="87" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7375,7 +6713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" ht="20" customHeight="1" spans="1:16">
+    <row r="88" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7425,7 +6763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" ht="20" customHeight="1" spans="1:16">
+    <row r="89" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7475,7 +6813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" ht="20" customHeight="1" spans="1:16">
+    <row r="90" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7525,7 +6863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" ht="20" customHeight="1" spans="1:16">
+    <row r="91" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7575,7 +6913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" ht="20" customHeight="1" spans="1:16">
+    <row r="92" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7625,7 +6963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" ht="20" customHeight="1" spans="1:16">
+    <row r="93" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7675,7 +7013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" ht="20" customHeight="1" spans="1:16">
+    <row r="94" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7725,7 +7063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" ht="20" customHeight="1" spans="1:16">
+    <row r="95" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7775,7 +7113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" ht="20" customHeight="1" spans="1:16">
+    <row r="96" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7825,7 +7163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" ht="20" customHeight="1" spans="1:16">
+    <row r="97" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7875,7 +7213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" ht="20" customHeight="1" spans="1:16">
+    <row r="98" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -7925,7 +7263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" ht="20" customHeight="1" spans="1:16">
+    <row r="99" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7975,7 +7313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" ht="20" customHeight="1" spans="1:16">
+    <row r="100" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -8025,7 +7363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" ht="20" customHeight="1" spans="1:16">
+    <row r="101" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -8075,7 +7413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" ht="20" customHeight="1" spans="1:16">
+    <row r="102" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -8125,7 +7463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" ht="20" customHeight="1" spans="1:16">
+    <row r="103" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -8175,7 +7513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" ht="20" customHeight="1" spans="1:16">
+    <row r="104" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -8225,7 +7563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" ht="20" customHeight="1" spans="1:16">
+    <row r="105" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -8275,7 +7613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" ht="20" customHeight="1" spans="1:16">
+    <row r="106" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -8325,7 +7663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" ht="20" customHeight="1" spans="1:16">
+    <row r="107" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -8375,7 +7713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" ht="20" customHeight="1" spans="1:16">
+    <row r="108" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -8425,7 +7763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" ht="20" customHeight="1" spans="1:16">
+    <row r="109" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -8475,7 +7813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" ht="20" customHeight="1" spans="1:16">
+    <row r="110" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -8525,7 +7863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" ht="20" customHeight="1" spans="1:16">
+    <row r="111" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -8575,7 +7913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" ht="20" customHeight="1" spans="1:16">
+    <row r="112" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8625,7 +7963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" ht="20" customHeight="1" spans="1:16">
+    <row r="113" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8675,7 +8013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" ht="20" customHeight="1" spans="1:16">
+    <row r="114" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8725,7 +8063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" ht="20" customHeight="1" spans="1:16">
+    <row r="115" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8775,7 +8113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" ht="20" customHeight="1" spans="1:16">
+    <row r="116" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8825,7 +8163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" ht="20" customHeight="1" spans="1:16">
+    <row r="117" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8875,7 +8213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" ht="20" customHeight="1" spans="1:16">
+    <row r="118" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -8925,7 +8263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" ht="20" customHeight="1" spans="1:16">
+    <row r="119" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -8975,7 +8313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" ht="20" customHeight="1" spans="1:16">
+    <row r="120" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -9025,7 +8363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" ht="20" customHeight="1" spans="1:16">
+    <row r="121" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -9075,7 +8413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" ht="20" customHeight="1" spans="1:16">
+    <row r="122" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -9125,7 +8463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" ht="20" customHeight="1" spans="1:16">
+    <row r="123" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -9175,7 +8513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" ht="20" customHeight="1" spans="1:16">
+    <row r="124" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -9225,7 +8563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" ht="20" customHeight="1" spans="1:16">
+    <row r="125" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -9275,7 +8613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" ht="20" customHeight="1" spans="1:16">
+    <row r="126" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -9325,7 +8663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" ht="20" customHeight="1" spans="1:16">
+    <row r="127" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -9375,7 +8713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" ht="20" customHeight="1" spans="1:16">
+    <row r="128" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -9425,7 +8763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" ht="20" customHeight="1" spans="1:16">
+    <row r="129" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -9475,7 +8813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" ht="20" customHeight="1" spans="1:16">
+    <row r="130" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -9527,26 +8865,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:16">
+    <row r="1" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -9598,26 +8929,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:3">
+    <row r="1" ht="20" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>556</v>
       </c>
@@ -9630,7 +8954,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/config/driver.xlsx
+++ b/config/driver.xlsx
@@ -2111,7 +2111,7 @@
   <dimension ref="A1:D18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="10" customWidth="1"/>
+    <col min="1" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:P130"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="16" width="10" customWidth="1"/>
+    <col min="1" max="16" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -8874,7 +8874,7 @@
   <dimension ref="A1:P1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="16" width="10" customWidth="1"/>
+    <col min="1" max="16" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -8938,7 +8938,7 @@
   <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="1" max="3" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
